--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/GERD_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/GERD_spec_overall.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,17 +467,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heartburn is a classic symptom of GERD, indicating acid reflux.</t>
+          <t>Heartburn is a classic symptom of GERD, indicating acid reflux into the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If antacids, which are typically effective for GERD, are no longer providing relief, it suggests an alternative diagnosis.</t>
+          <t>Raynaud's phenomenon is not associated with GERD and suggests other conditions like connective tissue disorders.</t>
         </is>
       </c>
     </row>
@@ -487,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reflux is a direct indicator of GERD, as it involves the backflow of stomach contents.</t>
+          <t>Reflux is a direct symptom of GERD, where stomach contents flow back into the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dysphagia can indicate structural issues or other conditions rather than GERD, which typically does not cause significant swallowing difficulties.</t>
+          <t>Telangiectasias are not typical of GERD and may indicate systemic conditions like scleroderma.</t>
         </is>
       </c>
     </row>
@@ -509,17 +511,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic heartburn is commonly associated with GERD, suggesting a persistent condition.</t>
+          <t>Chronic heartburn over years strongly suggests GERD as a persistent condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty with solids may suggest esophageal obstruction or motility disorders, which are not typical of GERD.</t>
+          <t>This finding is atypical for GERD and suggests other rheumatologic conditions.</t>
         </is>
       </c>
     </row>
@@ -531,17 +533,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are indicative of GERD, reinforcing the diagnosis.</t>
+          <t>Chronic reflux over years is indicative of GERD, as it suggests ongoing esophageal exposure to stomach acid.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can indicate serious underlying conditions, which may be less common in typical GERD cases.</t>
+          <t>While dysphagia can occur in GERD, difficulty with liquids is more suggestive of motility disorders.</t>
         </is>
       </c>
     </row>
@@ -553,17 +555,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Positional pain is characteristic of GERD, as lying down can exacerbate reflux symptoms.</t>
+          <t>GERD symptoms often worsen when lying down due to gravity allowing reflux.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Odynophagia is more indicative of esophageal inflammation or other conditions rather than GERD alone.</t>
+          <t>Unintentional weight loss is not a common feature of GERD and may indicate other serious conditions.</t>
         </is>
       </c>
     </row>
@@ -611,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Women are more likely to experience GERD symptoms compared to men, which supports the diagnosis.</t>
+          <t>GERD can occur in females, and while gender alone is not a strong predictor, it is consistent with the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of alcohol use disorder.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nicotine is a known risk factor for GERD; its absence suggests a lower likelihood of developing the condition.</t>
+          <t>Alcohol use can exacerbate GERD symptoms, so its absence slightly reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERD is more prevalent in middle-aged individuals, making this a supportive finding for the diagnosis.</t>
+          <t>GERD is more common in middle-aged individuals, which supports the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Absence of asthma.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Radiation treatment in these areas can lead to esophageal complications; its absence suggests a lower risk for GERD.</t>
+          <t>Asthma can be associated with GERD, so its absence slightly reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine can cause or exacerbate GERD symptoms due to its potential to relax the lower esophageal sphincter.</t>
+          <t>Amlodipine, a calcium channel blocker, can relax the lower esophageal sphincter and potentially exacerbate GERD symptoms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with lifestyle factors that can contribute to GERD; its absence may indicate a lower risk.</t>
+          <t>Recent changes in medication can sometimes trigger or exacerbate GERD symptoms, so their absence slightly reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcohol use is a known risk factor for GERD; its absence may suggest a lower likelihood of exacerbating factors.</t>
+          <t>While obesity is a risk factor for GERD, its absence does not strongly argue against GERD, as GERD can occur in non-obese individuals.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Absence of environmental allergies.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Environmental allergies can sometimes exacerbate respiratory symptoms that mimic GERD; their absence may reduce confusion with GERD symptoms.</t>
+          <t>While not directly related, environmental allergies can sometimes be associated with GERD symptoms, so their absence slightly reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Absence of nicotine dependence.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While obesity is a risk factor for GERD, its absence does not strongly negate the diagnosis, but it is a less supportive finding.</t>
+          <t>While nicotine dependence can exacerbate GERD, its absence does not strongly argue against GERD, as GERD can occur without it.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asthma can be associated with GERD symptoms; its absence may suggest a lower likelihood of GERD.</t>
+          <t>Radiation treatment can sometimes lead to GERD-like symptoms, so its absence slightly reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
@@ -762,44 +764,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stress can exacerbate GERD symptoms by increasing acid production and affecting esophageal motility.</t>
+          <t>Prior tobacco use is a known risk factor for GERD as it can weaken the lower esophageal sphincter, increasing the likelihood of acid reflux.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol consumption is a common risk factor for GERD; its absence suggests a lower likelihood of developing the condition.</t>
+          <t>The absence of current tobacco use reduces the risk of GERD as smoking is a known exacerbating factor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use is a known risk factor for GERD as it can relax the lower esophageal sphincter, leading to increased acid reflux.</t>
+          <t>Stress can exacerbate GERD symptoms by increasing acid production and affecting esophageal motility.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a significant risk factor for GERD; its absence supports a lower likelihood of the diagnosis.</t>
+          <t>The absence of alcohol use reduces the risk of GERD since alcohol can relax the lower esophageal sphincter and increase acid reflux.</t>
         </is>
       </c>
     </row>
@@ -811,61 +813,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, cardiovascular issues can sometimes correlate with lifestyle factors that may also contribute to GERD.</t>
+          <t>While not directly related to GERD, cardiovascular issues can sometimes correlate with lifestyle factors that also increase GERD risk.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Recent travel is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Travel can sometimes lead to dietary changes that may exacerbate GERD; its absence suggests stability in lifestyle that may not trigger symptoms.</t>
+          <t>The absence of recent travel suggests stability in lifestyle and diet, which might reduce the likelihood of GERD exacerbations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune conditions may suggest a lower likelihood of other systemic issues that could complicate GERD.</t>
+          <t>The absence of a family history of cancer does not directly impact GERD risk but may suggest a lower likelihood of other gastrointestinal pathologies that could mimic GERD symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of rheumatoid arthritis is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures reduces the likelihood of complications that could mimic or worsen GERD symptoms.</t>
+          <t>While not directly related to GERD, the absence of autoimmune conditions in the family may suggest a lower likelihood of systemic issues that could mimic GERD symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of cancer in the family may indicate a lower risk of esophageal complications that can mimic or exacerbate GERD.</t>
+          <t>The absence of alcohol use removes a potential exacerbating factor for GERD, but does not strongly argue against its presence.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower likelihood of related gastrointestinal issues that could contribute to GERD.</t>
+          <t>The absence of recent medical procedures suggests no recent changes in health status that could mimic or exacerbate GERD symptoms.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports GERD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for GERD</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against GERD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against GERD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Telangiectasias on exam is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Telangiectasias can be associated with conditions that overlap with GERD, such as scleroderma, which can cause GERD symptoms.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Epigastric pain on palpation is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Epigastric pain is a common symptom of GERD, and its absence makes GERD less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Weight loss on vitals is present.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weight loss can be associated with GERD due to discomfort after eating or changes in eating habits to avoid symptoms.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Obesity by vital signs is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Obesity is a risk factor for GERD, and its absence reduces the likelihood of GERD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Halitosis observed is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>While halitosis is often present in GERD, its absence does not strongly rule out GERD.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>High blood pressure when checked is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>While not directly related to GERD, high blood pressure can be associated with lifestyle factors that also contribute to GERD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hoarse voice observed is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hoarseness can be a symptom of GERD due to acid irritation, but its absence does not strongly rule out GERD.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Neck masses or fullness observed is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Neck masses or fullness can sometimes be associated with conditions that mimic GERD symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cough observed is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A cough can be a symptom of GERD, but its absence does not strongly rule out GERD.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Red eye observed is absent.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Red eye is not typically associated with GERD, so its absence does not strongly impact the likelihood of GERD.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports GERD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for GERD</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against GERD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against GERD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to GERD, but it can be associated with lifestyle factors that may contribute to GERD.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS suggests that there is no significant reflux causing aspiration, which is a common complication of severe GERD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support GERD, but it rules out autoimmune conditions that could mimic GERD symptoms.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly argue against GERD, but it rules out lung conditions that could be confused with GERD symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS does not directly support GERD, but it suggests that there is no severe reflux causing aspiration.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not directly argue against GERD, but it rules out other thoracic conditions that could mimic GERD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly support GERD, but it rules out interstitial lung disease that could cause similar symptoms.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly argue against GERD, but it rules out autoimmune conditions that could mimic GERD symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not directly support GERD, but it rules out other thoracic conditions that could mimic GERD.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to GERD and does not argue against its presence, but it is not a typical finding in GERD.</t>
         </is>
       </c>
     </row>
